--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\提瓦特保卫战\Teyvat-rush\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA335BF-9422-4815-8241-224F0BF5796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3262F0BB-29EE-4C83-B675-D52485C8213D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="敌人" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生成位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EnemyType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,11 +63,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BornPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ran1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ran2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ran3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ran4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ran5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ran0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,8 +135,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -400,20 +423,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="12.9140625" customWidth="1"/>
+    <col min="9" max="11" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,31 +453,51 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -472,8 +516,23 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -490,10 +549,25 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -510,10 +584,25 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -530,10 +619,25 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -550,10 +654,25 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -570,10 +689,25 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -590,10 +724,25 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -610,10 +759,28 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:K1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3262F0BB-29EE-4C83-B675-D52485C8213D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7740570D-6A57-46DD-9FA0-7016F05B6BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="敌人" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -575,10 +575,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -610,10 +610,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -645,14 +645,14 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
@@ -673,109 +673,34 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7740570D-6A57-46DD-9FA0-7016F05B6BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE28DFBE-C972-4E61-9A89-DC17CC21A212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,50 @@
   </si>
   <si>
     <t>Ran0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度条scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_max=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_max[1]=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_max[0]=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_max[2]=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m=m_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m&lt;m_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m/m_max+n/n_max[m]/m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,10 +179,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -423,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -453,14 +500,14 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -685,9 +732,15 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -695,12 +748,190 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.1666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE28DFBE-C972-4E61-9A89-DC17CC21A212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B10534E-6DFE-48F5-A725-FD108481EF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,47 +95,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进度条scale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TimeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_max=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_max[1]=4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_max[0]=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_max[2]=4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m=m_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m&lt;m_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m/m_max+n/n_max[m]/m</t>
+    <t>ProgressID_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeID_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前波次进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale=(ProgressID&lt;ProgressID_max)?(ProgressID/ProgressID_max+TimeID/TimeID_max/ProgressID):1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,46 +446,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="12.9140625" customWidth="1"/>
-    <col min="9" max="11" width="8.6640625" style="1"/>
+    <col min="3" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="12.9140625" customWidth="1"/>
+    <col min="12" max="14" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -517,34 +498,43 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -555,17 +545,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
         <v>20</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
@@ -576,10 +566,19 @@
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -587,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -596,10 +595,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -611,10 +610,19 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -622,19 +630,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -646,10 +654,19 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -657,19 +674,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -681,10 +698,19 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -692,250 +718,253 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.1666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.33329999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
+      <c r="D18" s="2"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="I1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B10534E-6DFE-48F5-A725-FD108481EF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1641FB-6DD2-4EA5-8327-A5201A5220B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1641FB-6DD2-4EA5-8327-A5201A5220B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBEB0EF-355B-4886-9354-93C2FF2E6445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随机位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ran1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,7 +107,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>scale=(ProgressID&lt;ProgressID_max)?(ProgressID/ProgressID_max+TimeID/TimeID_max/ProgressID):1</t>
+    <t>最大波次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前波次敌人数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机位置，1表示可能在这个位置生成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,12 +139,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -155,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -164,6 +174,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -448,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -467,14 +490,18 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1"/>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
@@ -482,7 +509,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -498,16 +525,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
@@ -516,22 +543,22 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -544,10 +571,10 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>0</v>
       </c>
       <c r="F3" s="1">
@@ -588,10 +615,10 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="1">
@@ -632,10 +659,10 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <v>2</v>
       </c>
       <c r="F5" s="1">
@@ -676,10 +703,10 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
         <v>3</v>
       </c>
       <c r="F6" s="1">
@@ -720,10 +747,10 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
         <v>0</v>
       </c>
       <c r="F7" s="1">
@@ -764,10 +791,10 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="1">
@@ -779,9 +806,24 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -793,10 +835,10 @@
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
         <v>2</v>
       </c>
       <c r="F9" s="2">
@@ -808,18 +850,33 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -843,9 +900,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -874,7 +929,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
@@ -882,12 +937,12 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
@@ -895,7 +950,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
@@ -903,7 +958,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
@@ -911,7 +966,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="1"/>
@@ -919,14 +974,14 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -934,33 +989,36 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+    <row r="28" spans="2:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646C6D53-DCB3-4A80-A0DF-3BC60DB03FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C95744-E6FC-42EF-B698-905BAEC26DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>所属进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,14 @@
   </si>
   <si>
     <t>0-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛卡巴卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咒语一呼喊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,9 +208,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -213,6 +218,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -496,22 +507,22 @@
   <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="9" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="9" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
     <col min="6" max="6" width="12.9140625" customWidth="1"/>
     <col min="10" max="12" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -520,7 +531,7 @@
       <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -529,17 +540,17 @@
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -548,7 +559,7 @@
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -577,27 +588,29 @@
       </c>
     </row>
     <row r="3" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>-1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="3">
@@ -606,10 +619,10 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>10</v>
       </c>
       <c r="F4" s="2">
@@ -635,7 +648,7 @@
       </c>
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" s="3">
@@ -644,10 +657,10 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>3</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>15</v>
       </c>
       <c r="F5" s="2">
@@ -673,7 +686,7 @@
       </c>
     </row>
     <row r="6" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
       <c r="B6" s="3">
@@ -682,10 +695,10 @@
       <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>3</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>20</v>
       </c>
       <c r="F6" s="2">
@@ -711,7 +724,7 @@
       </c>
     </row>
     <row r="7" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>1</v>
       </c>
       <c r="B7" s="3">
@@ -720,10 +733,10 @@
       <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
         <v>100</v>
       </c>
       <c r="F7" s="2">
@@ -749,27 +762,29 @@
       </c>
     </row>
     <row r="8" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>-1</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="D8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>1</v>
       </c>
       <c r="B9" s="3">
@@ -778,10 +793,10 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>3</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>10</v>
       </c>
       <c r="F9" s="2">
@@ -807,7 +822,7 @@
       </c>
     </row>
     <row r="10" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>1</v>
       </c>
       <c r="B10" s="3">
@@ -816,10 +831,10 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>3</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>15</v>
       </c>
       <c r="F10" s="2">
@@ -845,7 +860,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" s="3">
@@ -854,10 +869,10 @@
       <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>3</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>20</v>
       </c>
       <c r="F11" s="2">
@@ -904,7 +919,7 @@
       <c r="AG11"/>
     </row>
     <row r="12" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>1</v>
       </c>
       <c r="B12" s="3">
@@ -913,10 +928,10 @@
       <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>2</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>100</v>
       </c>
       <c r="F12" s="2">
@@ -963,7 +978,7 @@
       <c r="AG12"/>
     </row>
     <row r="13" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>1</v>
       </c>
       <c r="B13" s="3">
@@ -972,10 +987,10 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>2</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>111</v>
       </c>
       <c r="F13" s="2">
@@ -1022,10 +1037,10 @@
       <c r="AG13"/>
     </row>
     <row r="14" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9"/>
       <c r="B14"/>
       <c r="C14"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="9"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -1057,10 +1072,10 @@
       <c r="AG14"/>
     </row>
     <row r="15" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="B15"/>
       <c r="C15"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="9"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
@@ -1092,10 +1107,10 @@
       <c r="AG15"/>
     </row>
     <row r="16" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="9"/>
       <c r="B16"/>
       <c r="C16"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="9"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
@@ -1127,10 +1142,10 @@
       <c r="AG16"/>
     </row>
     <row r="17" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
       <c r="B17"/>
       <c r="C17"/>
-      <c r="D17" s="10"/>
+      <c r="D17" s="9"/>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
@@ -1162,10 +1177,10 @@
       <c r="AG17"/>
     </row>
     <row r="18" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="9"/>
       <c r="B18"/>
       <c r="C18"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="9"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
@@ -1197,10 +1212,10 @@
       <c r="AG18"/>
     </row>
     <row r="19" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9"/>
       <c r="B19"/>
       <c r="C19"/>
-      <c r="D19" s="10"/>
+      <c r="D19" s="9"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
@@ -1232,10 +1247,10 @@
       <c r="AG19"/>
     </row>
     <row r="20" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="9"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
@@ -1267,10 +1282,10 @@
       <c r="AG20"/>
     </row>
     <row r="21" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="9"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="9"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -1302,10 +1317,10 @@
       <c r="AG21"/>
     </row>
     <row r="22" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="9"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="9"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
@@ -1337,10 +1352,10 @@
       <c r="AG22"/>
     </row>
     <row r="23" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="9"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="9"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
@@ -1372,10 +1387,10 @@
       <c r="AG23"/>
     </row>
     <row r="24" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="9"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="9"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
@@ -1407,10 +1422,10 @@
       <c r="AG24"/>
     </row>
     <row r="25" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="9"/>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
@@ -1442,10 +1457,10 @@
       <c r="AG25"/>
     </row>
     <row r="26" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
+      <c r="A26" s="9"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="10"/>
+      <c r="D26" s="9"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
@@ -1477,10 +1492,10 @@
       <c r="AG26"/>
     </row>
     <row r="27" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
+      <c r="A27" s="9"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="9"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
@@ -1512,10 +1527,10 @@
       <c r="AG27"/>
     </row>
     <row r="28" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="10"/>
+      <c r="D28" s="9"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
@@ -1547,10 +1562,10 @@
       <c r="AG28"/>
     </row>
     <row r="29" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
+      <c r="A29" s="9"/>
       <c r="B29"/>
       <c r="C29"/>
-      <c r="D29" s="10"/>
+      <c r="D29" s="9"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C95744-E6FC-42EF-B698-905BAEC26DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ECF8C8-E82A-4F82-98AF-C30AC29E81ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4100" yWindow="5520" windowWidth="12200" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="敌人" sheetId="1" r:id="rId1"/>
@@ -218,10 +218,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -507,7 +507,7 @@
   <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -540,14 +540,14 @@
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -597,17 +597,17 @@
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
@@ -623,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="8">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="8">
-        <v>15</v>
+        <v>0.1</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="8">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="8">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -771,17 +771,17 @@
       <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ECF8C8-E82A-4F82-98AF-C30AC29E81ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9139DF-CF8F-4A45-8A4B-D0F81EFEC02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="5520" windowWidth="12200" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="敌人" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>所属进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,10 @@
   </si>
   <si>
     <t>咒语一呼喊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,7 +208,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -217,11 +220,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -507,31 +521,31 @@
   <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="12.9140625" customWidth="1"/>
-    <col min="10" max="12" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="14.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.9140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -540,26 +554,26 @@
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -587,42 +601,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>-1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
         <v>3</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>0.1</v>
       </c>
       <c r="F4" s="2">
@@ -647,21 +661,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
         <v>3</v>
       </c>
-      <c r="E5" s="8">
-        <v>0.1</v>
+      <c r="E5" s="7">
+        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -685,21 +699,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>3</v>
       </c>
-      <c r="E6" s="8">
-        <v>0.1</v>
+      <c r="E6" s="7">
+        <v>2</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -723,36 +737,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>1</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
         <v>1000</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -761,43 +775,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+    <row r="8" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>-1</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>1</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
         <v>3</v>
       </c>
-      <c r="E9" s="8">
-        <v>10</v>
+      <c r="E9" s="7">
+        <v>1</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -821,24 +835,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>1</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
         <v>3</v>
       </c>
-      <c r="E10" s="8">
-        <v>15</v>
+      <c r="E10" s="7">
+        <v>5</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -859,21 +873,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>1</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>2</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>3</v>
       </c>
-      <c r="E11" s="8">
-        <v>20</v>
+      <c r="E11" s="7">
+        <v>8</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -896,58 +910,58 @@
       <c r="L11" s="2">
         <v>0</v>
       </c>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-      <c r="AF11"/>
-      <c r="AG11"/>
-    </row>
-    <row r="12" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+    </row>
+    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>1</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
         <v>2</v>
       </c>
-      <c r="E12" s="8">
-        <v>100</v>
+      <c r="E12" s="7">
+        <v>18</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -955,58 +969,58 @@
       <c r="L12" s="2">
         <v>0</v>
       </c>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-      <c r="AF12"/>
-      <c r="AG12"/>
-    </row>
-    <row r="13" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+    </row>
+    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>1</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
         <v>2</v>
       </c>
-      <c r="E13" s="8">
-        <v>111</v>
+      <c r="E13" s="7">
+        <v>30</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -1014,587 +1028,664 @@
       <c r="L13" s="2">
         <v>0</v>
       </c>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-      <c r="AG13"/>
-    </row>
-    <row r="14" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14" s="9"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+    </row>
+    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>-1</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-      <c r="AE14"/>
-      <c r="AF14"/>
-      <c r="AG14"/>
-    </row>
-    <row r="15" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15" s="9"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15"/>
-      <c r="AD15"/>
-      <c r="AE15"/>
-      <c r="AF15"/>
-      <c r="AG15"/>
-    </row>
-    <row r="16" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16" s="9"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-      <c r="AF16"/>
-      <c r="AG16"/>
-    </row>
-    <row r="17" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17" s="9"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
-      <c r="AE17"/>
-      <c r="AF17"/>
-      <c r="AG17"/>
-    </row>
-    <row r="18" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18" s="9"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+    </row>
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+    </row>
+    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+    </row>
+    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="12">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="18" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-      <c r="AE18"/>
-      <c r="AF18"/>
-      <c r="AG18"/>
-    </row>
-    <row r="19" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19" s="9"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+    </row>
+    <row r="19" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
-      <c r="AC19"/>
-      <c r="AD19"/>
-      <c r="AE19"/>
-      <c r="AF19"/>
-      <c r="AG19"/>
-    </row>
-    <row r="20" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20" s="9"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+    </row>
+    <row r="20" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-      <c r="AE20"/>
-      <c r="AF20"/>
-      <c r="AG20"/>
-    </row>
-    <row r="21" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21" s="9"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+    </row>
+    <row r="21" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-      <c r="AE21"/>
-      <c r="AF21"/>
-      <c r="AG21"/>
-    </row>
-    <row r="22" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22" s="9"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+    </row>
+    <row r="22" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
-      <c r="AB22"/>
-      <c r="AC22"/>
-      <c r="AD22"/>
-      <c r="AE22"/>
-      <c r="AF22"/>
-      <c r="AG22"/>
-    </row>
-    <row r="23" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23" s="9"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+    </row>
+    <row r="23" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-      <c r="AB23"/>
-      <c r="AC23"/>
-      <c r="AD23"/>
-      <c r="AE23"/>
-      <c r="AF23"/>
-      <c r="AG23"/>
-    </row>
-    <row r="24" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24" s="9"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+    </row>
+    <row r="24" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
-      <c r="AB24"/>
-      <c r="AC24"/>
-      <c r="AD24"/>
-      <c r="AE24"/>
-      <c r="AF24"/>
-      <c r="AG24"/>
-    </row>
-    <row r="25" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25" s="9"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+    </row>
+    <row r="25" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25"/>
-      <c r="AA25"/>
-      <c r="AB25"/>
-      <c r="AC25"/>
-      <c r="AD25"/>
-      <c r="AE25"/>
-      <c r="AF25"/>
-      <c r="AG25"/>
-    </row>
-    <row r="26" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26" s="9"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+    </row>
+    <row r="26" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
-      <c r="AB26"/>
-      <c r="AC26"/>
-      <c r="AD26"/>
-      <c r="AE26"/>
-      <c r="AF26"/>
-      <c r="AG26"/>
-    </row>
-    <row r="27" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27" s="9"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+    </row>
+    <row r="27" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
-      <c r="AA27"/>
-      <c r="AB27"/>
-      <c r="AC27"/>
-      <c r="AD27"/>
-      <c r="AE27"/>
-      <c r="AF27"/>
-      <c r="AG27"/>
-    </row>
-    <row r="28" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28" s="9"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+    </row>
+    <row r="28" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
-      <c r="AB28"/>
-      <c r="AC28"/>
-      <c r="AD28"/>
-      <c r="AE28"/>
-      <c r="AF28"/>
-      <c r="AG28"/>
-    </row>
-    <row r="29" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29" s="9"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+    </row>
+    <row r="29" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-      <c r="Z29"/>
-      <c r="AA29"/>
-      <c r="AB29"/>
-      <c r="AC29"/>
-      <c r="AD29"/>
-      <c r="AE29"/>
-      <c r="AF29"/>
-      <c r="AG29"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9139DF-CF8F-4A45-8A4B-D0F81EFEC02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B34AAB-635A-4F60-B905-46B0BC500666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="敌人" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -223,9 +232,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -236,6 +242,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -521,15 +530,15 @@
   <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="11" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="11" customWidth="1"/>
     <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.9140625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.6640625" style="1"/>
@@ -554,14 +563,14 @@
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -634,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -666,16 +675,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
       </c>
       <c r="E5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -704,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
       </c>
       <c r="E6" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -745,13 +754,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="7">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
@@ -1051,16 +1060,16 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>-1</v>
       </c>
       <c r="B14" s="7">
-        <v>3</v>
-      </c>
-      <c r="C14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1091,16 +1100,16 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>0</v>
+      <c r="A15" s="11">
+        <v>2</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
       </c>
-      <c r="C15" s="10">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
         <v>3</v>
       </c>
       <c r="E15" s="1">
@@ -1150,16 +1159,16 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>0</v>
+      <c r="A16" s="11">
+        <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
       </c>
-      <c r="C16" s="10">
-        <v>1</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11">
         <v>3</v>
       </c>
       <c r="E16" s="1">
@@ -1209,23 +1218,23 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>0</v>
+      <c r="A17" s="11">
+        <v>2</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
       </c>
-      <c r="C17" s="10">
-        <v>2</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="C17" s="9">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11">
         <v>3</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
       </c>
       <c r="F17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1268,18 +1277,42 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="A18" s="11">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>100</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1303,18 +1336,42 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="A19" s="11">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>105</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1338,18 +1395,42 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="A20" s="11">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>110</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1373,18 +1454,42 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="A21" s="11">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>115</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -1408,18 +1513,42 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="A22" s="11">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9">
+        <v>4</v>
+      </c>
+      <c r="D22" s="11">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>120</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -1443,18 +1572,42 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="A23" s="11">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>200</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -1478,18 +1631,42 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="A24" s="11">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>205</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -1513,18 +1690,12 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -1548,18 +1719,12 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="12"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -1583,10 +1748,10 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="12"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1618,10 +1783,10 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="12"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1653,10 +1818,10 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="12"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B34AAB-635A-4F60-B905-46B0BC500666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45F03F4-19C7-46A1-BA7A-122D808FB1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>所属进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,18 +92,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前波次进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最大波次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前波次敌人数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>随机位置，1表示可能在这个位置生成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,6 +117,22 @@
   </si>
   <si>
     <t>0-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前波次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前波次敌人序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前波次敌人总数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amazing~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +534,7 @@
   <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -546,25 +550,25 @@
   <sheetData>
     <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
@@ -574,40 +578,40 @@
     </row>
     <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -618,10 +622,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -722,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="7">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -760,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="7">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
@@ -792,10 +796,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -955,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="7">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="F12" s="2">
         <v>3</v>
@@ -1014,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="7">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="F13" s="2">
         <v>2</v>
@@ -1067,16 +1071,19 @@
         <v>10</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1112,7 +1119,7 @@
       <c r="D15" s="11">
         <v>3</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="11">
         <v>1</v>
       </c>
       <c r="F15" s="1">
@@ -1171,7 +1178,7 @@
       <c r="D16" s="11">
         <v>3</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="11">
         <v>5</v>
       </c>
       <c r="F16" s="1">
@@ -1230,7 +1237,7 @@
       <c r="D17" s="11">
         <v>3</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="11">
         <v>10</v>
       </c>
       <c r="F17" s="1">
@@ -1289,7 +1296,7 @@
       <c r="D18" s="11">
         <v>5</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="11">
         <v>100</v>
       </c>
       <c r="F18" s="1">
@@ -1348,7 +1355,7 @@
       <c r="D19" s="11">
         <v>5</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="11">
         <v>105</v>
       </c>
       <c r="F19" s="1">
@@ -1407,7 +1414,7 @@
       <c r="D20" s="11">
         <v>5</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="11">
         <v>110</v>
       </c>
       <c r="F20" s="1">
@@ -1466,7 +1473,7 @@
       <c r="D21" s="11">
         <v>5</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="11">
         <v>115</v>
       </c>
       <c r="F21" s="1">
@@ -1525,7 +1532,7 @@
       <c r="D22" s="11">
         <v>5</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="11">
         <v>120</v>
       </c>
       <c r="F22" s="1">
@@ -1584,7 +1591,7 @@
       <c r="D23" s="11">
         <v>2</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="11">
         <v>200</v>
       </c>
       <c r="F23" s="1">
@@ -1643,7 +1650,7 @@
       <c r="D24" s="11">
         <v>2</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="11">
         <v>205</v>
       </c>
       <c r="F24" s="1">

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45F03F4-19C7-46A1-BA7A-122D808FB1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD70FD8-F7A5-4092-918B-285BD6FA1B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -688,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="7">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1238,10 +1238,10 @@
         <v>3</v>
       </c>
       <c r="E17" s="11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>5</v>
       </c>
       <c r="E18" s="11">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F18" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="11">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>5</v>
       </c>
       <c r="E20" s="11">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -1474,10 +1474,10 @@
         <v>5</v>
       </c>
       <c r="E21" s="11">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>5</v>
       </c>
       <c r="E22" s="11">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="F22" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -1592,10 +1592,10 @@
         <v>2</v>
       </c>
       <c r="E23" s="11">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="F23" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>2</v>
       </c>
       <c r="E24" s="11">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="F24" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD70FD8-F7A5-4092-918B-285BD6FA1B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B2B127-8DD1-4F45-888A-986D1F61FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,22 @@
   </si>
   <si>
     <t>amazing~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色区域：填错会报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色区域：空闲位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度条读的是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前四列数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +182,30 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -210,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,6 +290,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,7 +586,7 @@
   <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -627,10 +679,18 @@
       <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="E3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1123,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -1179,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1238,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="E17" s="11">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1297,10 +1357,10 @@
         <v>5</v>
       </c>
       <c r="E18" s="11">
-        <v>7</v>
+        <v>36888</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1356,10 +1416,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="11">
-        <v>8</v>
+        <v>36889</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -1415,10 +1475,10 @@
         <v>5</v>
       </c>
       <c r="E20" s="11">
-        <v>9</v>
+        <v>36890</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -1474,10 +1534,10 @@
         <v>5</v>
       </c>
       <c r="E21" s="11">
-        <v>10</v>
+        <v>36891</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -1533,10 +1593,10 @@
         <v>5</v>
       </c>
       <c r="E22" s="11">
-        <v>11</v>
+        <v>36892</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -1592,10 +1652,10 @@
         <v>2</v>
       </c>
       <c r="E23" s="11">
-        <v>12</v>
+        <v>36893</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -1651,10 +1711,10 @@
         <v>2</v>
       </c>
       <c r="E24" s="11">
-        <v>13</v>
+        <v>36894</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B2B127-8DD1-4F45-888A-986D1F61FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC44CE3-6E07-403B-8690-35D3AECCE1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,9 +288,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -302,6 +299,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,7 +586,7 @@
   <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -619,14 +619,14 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -679,16 +679,16 @@
       <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="8"/>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -1239,19 +1239,19 @@
         <v>3</v>
       </c>
       <c r="E16" s="11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1298,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="E17" s="11">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>5</v>
       </c>
       <c r="E18" s="11">
-        <v>36888</v>
+        <v>7</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -1416,10 +1416,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="11">
-        <v>36889</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -1428,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -1475,19 +1475,19 @@
         <v>5</v>
       </c>
       <c r="E20" s="11">
-        <v>36890</v>
+        <v>11</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="11">
-        <v>36891</v>
+        <v>13</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>5</v>
       </c>
       <c r="E22" s="11">
-        <v>36892</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>2</v>
       </c>
       <c r="E23" s="11">
-        <v>36893</v>
+        <v>17</v>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -1664,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>2</v>
       </c>
       <c r="E24" s="11">
-        <v>36894</v>
+        <v>19</v>
       </c>
       <c r="F24" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
@@ -1723,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
         <v>0</v>

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC44CE3-6E07-403B-8690-35D3AECCE1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E73602-B59A-41EC-A8D7-CACF840F8358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -1428,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -1481,13 +1481,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
@@ -1664,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
@@ -1723,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
       </c>
       <c r="K24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
         <v>0</v>

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E73602-B59A-41EC-A8D7-CACF840F8358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A22A2C-8D7E-4C67-A982-181D754C83CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -887,16 +887,16 @@
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -925,16 +925,16 @@
         <v>5</v>
       </c>
       <c r="F10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -963,16 +963,16 @@
         <v>8</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>101</v>
       </c>
       <c r="F12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -1081,16 +1081,16 @@
         <v>102</v>
       </c>
       <c r="F13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A22A2C-8D7E-4C67-A982-181D754C83CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7B3AC0-F136-4546-B0EB-BEE03C23C300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -896,10 +896,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -934,10 +934,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -972,10 +972,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -1087,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -1245,19 +1245,19 @@
         <v>2</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>3</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -1363,19 +1363,19 @@
         <v>4</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -1422,19 +1422,19 @@
         <v>5</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -1481,19 +1481,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -1540,19 +1540,19 @@
         <v>2</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -1599,19 +1599,19 @@
         <v>3</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>4</v>
       </c>
       <c r="G23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -1717,19 +1717,19 @@
         <v>5</v>
       </c>
       <c r="G24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
         <v>0</v>

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7B3AC0-F136-4546-B0EB-BEE03C23C300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86281AA3-1722-43FC-A889-DFC2A381150F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1537,7 +1537,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -1596,7 +1596,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -1655,7 +1655,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -1714,7 +1714,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86281AA3-1722-43FC-A889-DFC2A381150F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC99F11-6ABA-4986-B677-A628284B2666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -1242,22 +1242,22 @@
         <v>3</v>
       </c>
       <c r="F16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -1301,22 +1301,22 @@
         <v>5</v>
       </c>
       <c r="F17" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -1360,22 +1360,22 @@
         <v>7</v>
       </c>
       <c r="F18" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -1419,22 +1419,22 @@
         <v>9</v>
       </c>
       <c r="F19" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -1481,19 +1481,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -1540,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -1599,19 +1599,19 @@
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -1717,19 +1717,19 @@
         <v>0</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
         <v>0</v>

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC99F11-6ABA-4986-B677-A628284B2666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DB7B89-2C85-480D-B217-BD553F430FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前波次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前波次敌人序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +145,10 @@
   </si>
   <si>
     <t>前四列数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前波次数或总敌人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +211,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -250,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,6 +317,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -604,14 +643,14 @@
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -671,7 +710,7 @@
         <v>-1</v>
       </c>
       <c r="B3" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>16</v>
@@ -680,346 +719,325 @@
         <v>18</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
+    <row r="4" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="E5" s="7">
-        <v>100</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B4" s="20">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <v>2</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="25">
+        <v>1</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="E6" s="7">
-        <v>101</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="B5" s="20">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2</v>
+      </c>
+      <c r="E5" s="23">
+        <v>5</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="25">
+        <v>1</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="E7" s="7">
-        <v>102</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>-1</v>
-      </c>
-      <c r="B8" s="7">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="B6" s="20">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2</v>
+      </c>
+      <c r="E6" s="23">
+        <v>10</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <v>1</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
         <v>3</v>
       </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="B7" s="20">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2</v>
+      </c>
+      <c r="E7" s="18">
+        <v>15</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
         <v>3</v>
       </c>
-      <c r="E10" s="7">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>4</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="B8" s="20">
+        <v>2</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2</v>
+      </c>
+      <c r="E8" s="18">
+        <v>20</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <v>1</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0</v>
+      </c>
+      <c r="L8" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>3</v>
+      </c>
+      <c r="B9" s="20">
+        <v>2</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>25</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>3</v>
+      </c>
+      <c r="B10" s="20">
+        <v>3</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18">
+        <v>40</v>
+      </c>
+      <c r="F10" s="19">
+        <v>2</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2">
-        <v>4</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
+        <v>-1</v>
+      </c>
+      <c r="B11" s="7">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>1</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="20">
+        <v>0</v>
+      </c>
+      <c r="C12" s="21">
         <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="7">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>4</v>
@@ -1042,43 +1060,22 @@
       <c r="L12" s="2">
         <v>0</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>1</v>
       </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="20">
+        <v>0</v>
+      </c>
+      <c r="C13" s="21">
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="7">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
@@ -1087,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -1101,49 +1098,44 @@
       <c r="L13" s="2">
         <v>0</v>
       </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>-1</v>
-      </c>
-      <c r="B14" s="7">
-        <v>10</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0</v>
+      </c>
+      <c r="C14" s="21">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1167,35 +1159,35 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11">
-        <v>3</v>
-      </c>
-      <c r="E15" s="11">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="20">
+        <v>1</v>
+      </c>
+      <c r="C15" s="21">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>101</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -1226,23 +1218,23 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9">
-        <v>1</v>
-      </c>
-      <c r="D16" s="11">
-        <v>3</v>
-      </c>
-      <c r="E16" s="11">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="20">
+        <v>1</v>
+      </c>
+      <c r="C16" s="21">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>102</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1251,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -1286,41 +1278,25 @@
     </row>
     <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9">
-        <v>2</v>
-      </c>
-      <c r="D17" s="11">
-        <v>3</v>
-      </c>
-      <c r="E17" s="11">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="B17" s="7">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1348,16 +1324,16 @@
         <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="9">
         <v>0</v>
       </c>
       <c r="D18" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1407,16 +1383,16 @@
         <v>2</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
       </c>
       <c r="D19" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1466,16 +1442,16 @@
         <v>2</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="9">
         <v>2</v>
       </c>
       <c r="D20" s="11">
+        <v>3</v>
+      </c>
+      <c r="E20" s="11">
         <v>5</v>
-      </c>
-      <c r="E20" s="11">
-        <v>11</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1528,13 +1504,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" s="11">
         <v>5</v>
       </c>
       <c r="E21" s="11">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1587,13 +1563,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" s="11">
         <v>5</v>
       </c>
       <c r="E22" s="11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1643,16 +1619,16 @@
         <v>2</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E23" s="11">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1702,16 +1678,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" s="11">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1757,12 +1733,42 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="A25" s="11">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9">
+        <v>4</v>
+      </c>
+      <c r="D25" s="11">
+        <v>5</v>
+      </c>
+      <c r="E25" s="11">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -1786,12 +1792,42 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="A26" s="11">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11">
+        <v>2</v>
+      </c>
+      <c r="E26" s="11">
+        <v>17</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -1815,18 +1851,42 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="A27" s="11">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11">
+        <v>2</v>
+      </c>
+      <c r="E27" s="11">
+        <v>19</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -1856,12 +1916,6 @@
       <c r="D28" s="11"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -1891,12 +1945,6 @@
       <c r="D29" s="11"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -1919,6 +1967,111 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
+    <row r="30" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+    </row>
+    <row r="31" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+    </row>
+    <row r="32" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:L1"/>

--- a/Assets/Editor/关卡波次.xlsx
+++ b/Assets/Editor/关卡波次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DB7B89-2C85-480D-B217-BD553F430FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2311EDA-5B51-4C8D-AF84-E9520C038F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最大波次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>随机位置，1表示可能在这个位置生成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +145,35 @@
   </si>
   <si>
     <t>当前波次数或总敌人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最大波次数（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>至少为1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +251,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -265,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,31 +358,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -640,32 +676,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -710,346 +746,367 @@
         <v>-1</v>
       </c>
       <c r="B3" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
+    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="20">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21">
+        <v>1</v>
+      </c>
+      <c r="J4" s="21">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="19">
+        <v>2</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0</v>
+      </c>
+      <c r="I5" s="21">
+        <v>1</v>
+      </c>
+      <c r="J5" s="21">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="20">
-        <v>0</v>
-      </c>
-      <c r="C4" s="21">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
-        <v>2</v>
-      </c>
-      <c r="E4" s="23">
-        <v>1</v>
-      </c>
-      <c r="F4" s="24">
-        <v>0</v>
-      </c>
-      <c r="G4" s="25">
-        <v>0</v>
-      </c>
-      <c r="H4" s="25">
-        <v>0</v>
-      </c>
-      <c r="I4" s="25">
-        <v>1</v>
-      </c>
-      <c r="J4" s="25">
-        <v>0</v>
-      </c>
-      <c r="K4" s="25">
-        <v>0</v>
-      </c>
-      <c r="L4" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21">
+        <v>1</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="19">
+        <v>10</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0</v>
+      </c>
+      <c r="I7" s="21">
+        <v>1</v>
+      </c>
+      <c r="J7" s="21">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21">
+        <v>0</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="20">
-        <v>0</v>
-      </c>
-      <c r="C5" s="21">
-        <v>1</v>
-      </c>
-      <c r="D5" s="18">
-        <v>2</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7">
         <v>5</v>
       </c>
-      <c r="F5" s="24">
-        <v>0</v>
-      </c>
-      <c r="G5" s="25">
-        <v>0</v>
-      </c>
-      <c r="H5" s="25">
-        <v>0</v>
-      </c>
-      <c r="I5" s="25">
-        <v>1</v>
-      </c>
-      <c r="J5" s="25">
-        <v>0</v>
-      </c>
-      <c r="K5" s="25">
-        <v>0</v>
-      </c>
-      <c r="L5" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
-        <v>3</v>
-      </c>
-      <c r="B6" s="20">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21">
-        <v>0</v>
-      </c>
-      <c r="D6" s="18">
-        <v>2</v>
-      </c>
-      <c r="E6" s="23">
-        <v>10</v>
-      </c>
-      <c r="F6" s="24">
-        <v>0</v>
-      </c>
-      <c r="G6" s="25">
-        <v>0</v>
-      </c>
-      <c r="H6" s="25">
-        <v>0</v>
-      </c>
-      <c r="I6" s="25">
-        <v>1</v>
-      </c>
-      <c r="J6" s="25">
-        <v>0</v>
-      </c>
-      <c r="K6" s="25">
-        <v>0</v>
-      </c>
-      <c r="L6" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
-        <v>3</v>
-      </c>
-      <c r="B7" s="20">
-        <v>1</v>
-      </c>
-      <c r="C7" s="21">
-        <v>1</v>
-      </c>
-      <c r="D7" s="18">
-        <v>2</v>
-      </c>
-      <c r="E7" s="18">
-        <v>15</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0</v>
-      </c>
-      <c r="I7" s="19">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19">
-        <v>0</v>
-      </c>
-      <c r="L7" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
-        <v>3</v>
-      </c>
-      <c r="B8" s="20">
-        <v>2</v>
-      </c>
-      <c r="C8" s="21">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18">
-        <v>2</v>
-      </c>
-      <c r="E8" s="18">
-        <v>20</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19">
-        <v>0</v>
-      </c>
-      <c r="I8" s="19">
-        <v>1</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0</v>
-      </c>
-      <c r="K8" s="19">
-        <v>0</v>
-      </c>
-      <c r="L8" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
-        <v>3</v>
-      </c>
-      <c r="B9" s="20">
-        <v>2</v>
-      </c>
-      <c r="C9" s="21">
-        <v>1</v>
-      </c>
-      <c r="D9" s="18">
-        <v>2</v>
-      </c>
-      <c r="E9" s="18">
-        <v>25</v>
-      </c>
-      <c r="F9" s="19">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="19">
-        <v>0</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0</v>
-      </c>
-      <c r="L9" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
-        <v>3</v>
-      </c>
-      <c r="B10" s="20">
-        <v>3</v>
-      </c>
-      <c r="C10" s="21">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18">
-        <v>1</v>
-      </c>
-      <c r="E10" s="18">
-        <v>40</v>
-      </c>
-      <c r="F10" s="19">
-        <v>2</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0</v>
-      </c>
-      <c r="I10" s="19">
-        <v>1</v>
-      </c>
-      <c r="J10" s="19">
-        <v>0</v>
-      </c>
-      <c r="K10" s="19">
-        <v>0</v>
-      </c>
-      <c r="L10" s="19">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
-        <v>-1</v>
-      </c>
-      <c r="B11" s="7">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="17">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>1</v>
       </c>
-      <c r="B12" s="20">
-        <v>0</v>
-      </c>
-      <c r="C12" s="21">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17">
         <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="7">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="F12" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -1060,34 +1117,55 @@
       <c r="L12" s="2">
         <v>0</v>
       </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>1</v>
       </c>
-      <c r="B13" s="20">
-        <v>0</v>
-      </c>
-      <c r="C13" s="21">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17">
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="7">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="F13" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -1098,44 +1176,49 @@
       <c r="L13" s="2">
         <v>0</v>
       </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>1</v>
-      </c>
-      <c r="B14" s="20">
-        <v>0</v>
-      </c>
-      <c r="C14" s="21">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7">
-        <v>3</v>
-      </c>
-      <c r="E14" s="7">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2">
-        <v>4</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
+      <c r="A14" s="11">
+        <v>-1</v>
+      </c>
+      <c r="B14" s="7">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1159,35 +1242,35 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>1</v>
-      </c>
-      <c r="B15" s="20">
-        <v>1</v>
-      </c>
-      <c r="C15" s="21">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>2</v>
-      </c>
-      <c r="E15" s="7">
-        <v>101</v>
-      </c>
-      <c r="F15" s="2">
-        <v>4</v>
+      <c r="A15" s="11">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>3</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -1218,23 +1301,23 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>1</v>
-      </c>
-      <c r="B16" s="20">
-        <v>1</v>
-      </c>
-      <c r="C16" s="21">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2</v>
-      </c>
-      <c r="E16" s="7">
-        <v>102</v>
-      </c>
-      <c r="F16" s="2">
-        <v>4</v>
+      <c r="A16" s="11">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11">
+        <v>3</v>
+      </c>
+      <c r="E16" s="11">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1243,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -1278,25 +1361,41 @@
     </row>
     <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
-        <v>-1</v>
-      </c>
-      <c r="B17" s="7">
-        <v>10</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>3</v>
+      </c>
+      <c r="E17" s="11">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1324,16 +1423,16 @@
         <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="9">
         <v>0</v>
       </c>
       <c r="D18" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" s="11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1383,16 +1482,16 @@
         <v>2</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
       </c>
       <c r="D19" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19" s="11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1442,16 +1541,16 @@
         <v>2</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="9">
         <v>2</v>
       </c>
       <c r="D20" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E20" s="11">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1504,13 +1603,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D21" s="11">
         <v>5</v>
       </c>
       <c r="E21" s="11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1563,13 +1662,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" s="11">
         <v>5</v>
       </c>
       <c r="E22" s="11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1619,16 +1718,16 @@
         <v>2</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23" s="11">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1678,16 +1777,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24" s="11">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1733,42 +1832,12 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
-        <v>2</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9">
-        <v>4</v>
-      </c>
-      <c r="D25" s="11">
-        <v>5</v>
-      </c>
-      <c r="E25" s="11">
-        <v>15</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
+      <c r="A25" s="11"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -1792,42 +1861,12 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
-        <v>2</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" s="9">
-        <v>0</v>
-      </c>
-      <c r="D26" s="11">
-        <v>2</v>
-      </c>
-      <c r="E26" s="11">
-        <v>17</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>1</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
+      <c r="A26" s="11"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -1851,42 +1890,18 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
-        <v>2</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-      <c r="C27" s="9">
-        <v>1</v>
-      </c>
-      <c r="D27" s="11">
-        <v>2</v>
-      </c>
-      <c r="E27" s="11">
-        <v>19</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
+      <c r="A27" s="11"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -1916,6 +1931,12 @@
       <c r="D28" s="11"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -1945,6 +1966,12 @@
       <c r="D29" s="11"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -1967,111 +1994,6 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-    </row>
-    <row r="31" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-    </row>
-    <row r="32" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:L1"/>
